--- a/medicine/Enfance/Contes_du_bourreau/Contes_du_bourreau.xlsx
+++ b/medicine/Enfance/Contes_du_bourreau/Contes_du_bourreau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Contes du bourreau sont un recueil d'histoires pour enfants et préadolescents écrites en 1943 par Serge Dalens. Le nom du recueil pouvant terroriser les enfants (et sans doute aussi leurs parents), il fut renommé en 1957 La Plume Verte et autres Contes pour Roland, mais reprit son titre d'origine en 1995.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Roland est le nom d'un jeune garçon atteint d'une maladie incurable dans un hôpital où le narrateur était interne. Au fil des soirées, alors qu'il espérait vainement sa sortie, le narrateur lui raconta des histoires « inventées, déjà lues ou réellement arrivées ». À la demande de son entourage, il en choisit quelques-unes en accord avec le jeune malade pour en faire un recueil.
 Le « bourreau » en question est en fait le narrateur lui-même, en ce sens que les traitements de son jeune patient étaient parfois douloureux pour celui-ci.
@@ -545,7 +559,9 @@
           <t>Les nouvelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Piouk
 L'oiseau d'or, d'après un conte norvégien
